--- a/summaryStat.xlsx
+++ b/summaryStat.xlsx
@@ -456,28 +456,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="C2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="E2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="F2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="G2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="H2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="I2">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -485,28 +485,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.301020408163265</v>
+        <v>3.323204419889503</v>
       </c>
       <c r="C3">
-        <v>122.6275510204082</v>
+        <v>121.5773480662983</v>
       </c>
       <c r="D3">
-        <v>70.66326530612245</v>
+        <v>70.39226519337016</v>
       </c>
       <c r="E3">
-        <v>29.14540816326531</v>
+        <v>28.75138121546961</v>
       </c>
       <c r="F3">
-        <v>33.0862244897959</v>
+        <v>32.76988950276242</v>
       </c>
       <c r="G3">
-        <v>0.5230459183673473</v>
+        <v>0.4523646408839778</v>
       </c>
       <c r="H3">
-        <v>30.86479591836735</v>
+        <v>30.51381215469613</v>
       </c>
       <c r="I3">
-        <v>0.3316326530612245</v>
+        <v>0.3093922651933702</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -514,28 +514,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3.2114244562103</v>
+        <v>3.190700251763068</v>
       </c>
       <c r="C4">
-        <v>30.86078063172472</v>
+        <v>30.26129670497162</v>
       </c>
       <c r="D4">
-        <v>12.49609156496627</v>
+        <v>12.34682306223069</v>
       </c>
       <c r="E4">
-        <v>10.51642385399934</v>
+        <v>10.41834418676425</v>
       </c>
       <c r="F4">
-        <v>7.027659204401524</v>
+        <v>6.923584046881974</v>
       </c>
       <c r="G4">
-        <v>0.3454880427104998</v>
+        <v>0.2256340642160116</v>
       </c>
       <c r="H4">
-        <v>10.20077653426337</v>
+        <v>10.04566180802899</v>
       </c>
       <c r="I4">
-        <v>0.4714014451734465</v>
+        <v>0.4628828917378047</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -581,13 +581,13 @@
         <v>62</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>20.25</v>
       </c>
       <c r="F6">
-        <v>28.4</v>
+        <v>27.925</v>
       </c>
       <c r="G6">
-        <v>0.26975</v>
+        <v>0.26225</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>117.5</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -613,10 +613,10 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="G7">
-        <v>0.4495</v>
+        <v>0.422</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -633,22 +633,22 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>141.75</v>
       </c>
       <c r="D8">
         <v>78</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>37.1</v>
+        <v>36.75</v>
       </c>
       <c r="G8">
-        <v>0.6870000000000001</v>
+        <v>0.618</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -668,13 +668,13 @@
         <v>110</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>67.09999999999999</v>
       </c>
       <c r="G9">
-        <v>2.42</v>
+        <v>0.997</v>
       </c>
       <c r="H9">
         <v>81</v>
